--- a/rawdata/landuse_type_documentation.xlsx
+++ b/rawdata/landuse_type_documentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\LUM\BLU_2019 (LUM2020)\Step_4_ArcModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\Desktop\MUSA 650 RS\409\musa650-final\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A16C3F-F403-4D3F-8C41-16CEBC01C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16635"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,17 +112,35 @@
   </si>
   <si>
     <t>Streams and Nullahs</t>
+  </si>
+  <si>
+    <t>land cover type</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Wetland</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>forest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -134,7 +153,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -177,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,9 +206,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,241 +494,329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
         <v>61</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>62</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>72</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>74</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>81</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>83</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>91</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
+      <c r="C28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+    <sortCondition descending="1" ref="C1:C29"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
